--- a/test0.xlsx
+++ b/test0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GUIgoogleSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\indexThematicity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE0BC6-4E20-460A-B288-5CF4EAD00D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908B2D0C-38C4-4B8F-B953-07CD1A8C5C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="840" windowWidth="24870" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="1185" windowWidth="24870" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>FreshBites.com</t>
-  </si>
-  <si>
-    <t>WanderlustAdventures.net</t>
-  </si>
-  <si>
-    <t>TechGeekHQ.com</t>
-  </si>
-  <si>
-    <t>CozyNookRetreats.com</t>
-  </si>
-  <si>
-    <t>ArtisticExpressionsGallery.org</t>
-  </si>
-  <si>
-    <t>FitnessJunkieHub.com</t>
-  </si>
-  <si>
-    <t>DeliciousDelightsCatering.com</t>
-  </si>
-  <si>
-    <t>SustainableLivingSolutions.net</t>
-  </si>
-  <si>
-    <t>MindfulMeditations.com</t>
-  </si>
-  <si>
-    <t>ThriftyTravelerTips.org</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>techwibe.com</t>
+  </si>
+  <si>
+    <t>hackread.com</t>
+  </si>
+  <si>
+    <t>rswebsols.com</t>
+  </si>
+  <si>
+    <t>macobserver.com</t>
+  </si>
+  <si>
+    <t>cointiply.com</t>
+  </si>
+  <si>
+    <t>lowendmac.com</t>
+  </si>
+  <si>
+    <t>computertechreviews.com</t>
+  </si>
+  <si>
+    <t>codecondo.com</t>
+  </si>
+  <si>
+    <t>programminginsider.com</t>
+  </si>
+  <si>
+    <t>dashtech.org</t>
+  </si>
+  <si>
+    <t>computingforgeeks.com</t>
+  </si>
+  <si>
+    <t>imcgrupo.com</t>
+  </si>
+  <si>
+    <t>knowtechie.com</t>
+  </si>
+  <si>
+    <t>marketbusinessnews.com</t>
+  </si>
+  <si>
+    <t>Some info</t>
+  </si>
+  <si>
+    <t>More info</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>fawef</t>
+  </si>
+  <si>
+    <t>reggre</t>
+  </si>
+  <si>
+    <t>weew</t>
+  </si>
+  <si>
+    <t>dyt</t>
+  </si>
+  <si>
+    <t>tynyt</t>
+  </si>
+  <si>
+    <t>avrar</t>
+  </si>
+  <si>
+    <t>grer</t>
+  </si>
+  <si>
+    <t>ejki8</t>
+  </si>
+  <si>
+    <t>;ege</t>
+  </si>
+  <si>
+    <t>agrv</t>
+  </si>
+  <si>
+    <t>.oi</t>
+  </si>
+  <si>
+    <t>0p9;8</t>
+  </si>
+  <si>
+    <t>kr642</t>
   </si>
 </sst>
 </file>
@@ -112,13 +169,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,105 +464,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test0.xlsx
+++ b/test0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Index-Thematicity-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87925141-89F1-428F-B4D3-FEF028401A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F736D5AE-4F6A-463A-A4AA-E83AF5841C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="840" windowWidth="24870" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>More info</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>reggre</t>
-  </si>
-  <si>
-    <t>tynyt</t>
-  </si>
-  <si>
-    <t>cointiply.com</t>
   </si>
   <si>
     <t>macobserver.com</t>
@@ -113,12 +107,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -146,8 +146,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -366,7 +372,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -386,11 +392,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -400,10 +406,12 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="8">
+        <v>1630</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -412,10 +420,12 @@
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8">
+        <v>8800</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -424,10 +434,12 @@
       <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8">
+        <v>5360</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -436,22 +448,20 @@
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>28600</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
